--- a/data/trans_orig/P15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708622BE-69C6-404D-B0C4-17B16408FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72924EB-7341-4BE2-8E2B-800880329EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6885B1D-8B9C-4A5E-9DD6-7CAF9A65F22F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A0CCCC7-1331-4325-BA50-75495654B22B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1336 +77,1324 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EFD499-BFEE-4E88-9890-D9246FC20DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEEF68-7CFF-4759-B6BC-C7FD9679A008}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2133,7 +2121,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2136,13 @@
         <v>670974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -2163,13 +2151,13 @@
         <v>590225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1200</v>
@@ -2178,13 +2166,13 @@
         <v>1261198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,7 +2228,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2252,13 +2240,13 @@
         <v>45889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2267,13 +2255,13 @@
         <v>20157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2282,13 +2270,13 @@
         <v>66046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2291,13 @@
         <v>592779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -2318,13 +2306,13 @@
         <v>669587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1208</v>
@@ -2333,13 +2321,13 @@
         <v>1262366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,7 +2383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2407,13 +2395,13 @@
         <v>41139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2422,13 +2410,13 @@
         <v>19886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2437,13 +2425,13 @@
         <v>61024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2446,13 @@
         <v>478008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -2473,13 +2461,13 @@
         <v>495756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>928</v>
@@ -2488,13 +2476,13 @@
         <v>973765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2562,13 +2550,13 @@
         <v>18836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2577,13 +2565,13 @@
         <v>17804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2592,13 +2580,13 @@
         <v>36640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2601,13 @@
         <v>367874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>378</v>
@@ -2628,13 +2616,13 @@
         <v>386182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -2643,13 +2631,13 @@
         <v>754056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2693,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2717,13 +2705,13 @@
         <v>19592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2732,13 +2720,13 @@
         <v>59807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2747,13 +2735,13 @@
         <v>79399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2756,13 @@
         <v>482874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -2783,13 +2771,13 @@
         <v>617035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1106</v>
@@ -2798,13 +2786,13 @@
         <v>1099909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2860,13 @@
         <v>243056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -2887,13 +2875,13 @@
         <v>175391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -2902,13 +2890,13 @@
         <v>418447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2911,13 @@
         <v>3033488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3128</v>
@@ -2938,28 +2926,28 @@
         <v>3203807</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6105</v>
       </c>
       <c r="N23" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,7 +2989,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3015,7 +3003,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4364C36-9E25-46E5-B0B1-FB0B065A966D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53209A9-D860-4783-88A9-ADEA18FBFC69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3054,7 +3042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3161,13 +3149,13 @@
         <v>59630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3176,13 +3164,13 @@
         <v>31675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -3191,13 +3179,13 @@
         <v>91305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3200,13 @@
         <v>394516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3227,13 +3215,13 @@
         <v>398555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -3242,13 +3230,13 @@
         <v>793071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3304,13 @@
         <v>82320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3331,13 +3319,13 @@
         <v>39074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3346,13 +3334,13 @@
         <v>121393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3355,13 @@
         <v>604767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3382,13 +3370,13 @@
         <v>571181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1122</v>
@@ -3397,13 +3385,13 @@
         <v>1175949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,7 +3447,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3471,13 +3459,13 @@
         <v>56566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3486,13 +3474,13 @@
         <v>29388</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3501,13 +3489,13 @@
         <v>85954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3510,13 @@
         <v>625297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -3537,13 +3525,13 @@
         <v>681462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3552,13 +3540,13 @@
         <v>1306758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3602,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3614,13 @@
         <v>37146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3641,13 +3629,13 @@
         <v>36056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3656,13 +3644,13 @@
         <v>73202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3665,13 @@
         <v>577471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3692,13 +3680,13 @@
         <v>580143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3707,13 +3695,13 @@
         <v>1157614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3781,13 +3769,13 @@
         <v>12921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3796,13 +3784,13 @@
         <v>41757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3811,13 +3799,13 @@
         <v>54678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3820,13 @@
         <v>416508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3847,13 +3835,13 @@
         <v>406043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3862,13 +3850,13 @@
         <v>822551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3912,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3924,13 @@
         <v>39330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3951,13 +3939,13 @@
         <v>79523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3966,13 +3954,13 @@
         <v>118853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3975,13 @@
         <v>520307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>619</v>
@@ -4002,13 +3990,13 @@
         <v>663452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -4017,13 +4005,13 @@
         <v>1183759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4079,13 @@
         <v>287913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -4106,13 +4094,13 @@
         <v>257472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -4121,13 +4109,13 @@
         <v>545385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4130,7 @@
         <v>3138866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>250</v>
@@ -4163,7 +4151,7 @@
         <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>5990</v>
@@ -4172,13 +4160,13 @@
         <v>6439703</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4222,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B249280-0ABF-4706-8D26-011BC76B88EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC6EF6-6092-41A1-89E4-2CEF4A6B4B61}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4273,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4380,13 +4368,13 @@
         <v>43980</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4395,13 +4383,13 @@
         <v>18264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4410,13 +4398,13 @@
         <v>62244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4419,13 @@
         <v>375483</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>385</v>
@@ -4446,13 +4434,13 @@
         <v>377491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4461,13 +4449,13 @@
         <v>752974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4523,13 @@
         <v>50857</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4550,13 +4538,13 @@
         <v>22679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -4565,13 +4553,13 @@
         <v>73536</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,10 +4574,10 @@
         <v>539639</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>280</v>
@@ -4601,7 +4589,7 @@
         <v>540865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>281</v>
@@ -4619,7 +4607,7 @@
         <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>284</v>
@@ -4678,7 +4666,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4690,13 +4678,13 @@
         <v>35858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4705,13 +4693,13 @@
         <v>25048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4720,13 +4708,13 @@
         <v>60906</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4729,7 @@
         <v>633239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>293</v>
@@ -4759,10 +4747,10 @@
         <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>1247</v>
@@ -4771,13 +4759,13 @@
         <v>1269577</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4821,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4845,13 +4833,13 @@
         <v>28832</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4860,28 +4848,28 @@
         <v>24485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>53317</v>
+        <v>53318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4884,13 @@
         <v>617216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -4911,13 +4899,13 @@
         <v>624592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>1136</v>
@@ -4926,13 +4914,13 @@
         <v>1241808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,7 +4962,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4988,7 +4976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5000,13 +4988,13 @@
         <v>13989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5015,13 +5003,13 @@
         <v>30358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5030,13 +5018,13 @@
         <v>44347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5039,13 @@
         <v>463929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -5066,13 +5054,13 @@
         <v>466491</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5081,13 +5069,13 @@
         <v>930420</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,7 +5131,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5155,13 +5143,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -5170,13 +5158,13 @@
         <v>70619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -5185,13 +5173,13 @@
         <v>96737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5194,13 @@
         <v>565211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>596</v>
@@ -5221,13 +5209,13 @@
         <v>707312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>1194</v>
@@ -5236,13 +5224,13 @@
         <v>1272522</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5298,13 @@
         <v>199634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5325,13 +5313,13 @@
         <v>191453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5343,10 +5331,10 @@
         <v>35</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5349,13 @@
         <v>3194716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5376,13 +5364,13 @@
         <v>3353089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5391,13 +5379,13 @@
         <v>6547805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,7 +5441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +5463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB94731C-7C59-4750-A244-5AFF612E781C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0BA8D-0C5C-42BE-91A6-5094D9F70049}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5492,7 +5480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5599,13 +5587,13 @@
         <v>18010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5614,13 +5602,13 @@
         <v>22926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5629,13 +5617,13 @@
         <v>40936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5638,13 @@
         <v>359669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5665,13 +5653,13 @@
         <v>332031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5680,13 +5668,13 @@
         <v>691700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5742,13 @@
         <v>27403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5769,13 +5757,13 @@
         <v>16372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5784,13 +5772,13 @@
         <v>43775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5793,13 @@
         <v>400993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5820,13 +5808,13 @@
         <v>482205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5835,13 +5823,13 @@
         <v>883198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,7 +5885,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5909,13 +5897,13 @@
         <v>37306</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5924,13 +5912,13 @@
         <v>29867</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5939,13 +5927,13 @@
         <v>67173</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5948,13 @@
         <v>519946</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -6052,7 +6040,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6064,13 +6052,13 @@
         <v>52830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6079,13 +6067,13 @@
         <v>31658</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -6097,10 +6085,10 @@
         <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6103,13 @@
         <v>671160</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>1091</v>
@@ -6130,28 +6118,28 @@
         <v>715603</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
       </c>
       <c r="N14" s="7">
-        <v>1386764</v>
+        <v>1386763</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,7 +6181,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6207,7 +6195,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6219,13 +6207,13 @@
         <v>30746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -6234,13 +6222,13 @@
         <v>38196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -6273,10 +6261,10 @@
         <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>940</v>
@@ -6285,10 +6273,10 @@
         <v>558867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>422</v>
@@ -6362,7 +6350,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6377,10 +6365,10 @@
         <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -6389,13 +6377,13 @@
         <v>93258</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>242</v>
@@ -6404,13 +6392,13 @@
         <v>131925</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,16 +6410,16 @@
         <v>964</v>
       </c>
       <c r="D20" s="7">
-        <v>659087</v>
+        <v>659088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>1530</v>
@@ -6440,13 +6428,13 @@
         <v>933379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>2494</v>
@@ -6455,13 +6443,13 @@
         <v>1592467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6461,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6529,13 +6517,13 @@
         <v>204962</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -6544,13 +6532,13 @@
         <v>232277</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -6559,13 +6547,13 @@
         <v>437239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6568,13 @@
         <v>3180266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>5005</v>
@@ -6595,28 +6583,28 @@
         <v>3575695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>8169</v>
       </c>
       <c r="N23" s="7">
-        <v>6755961</v>
+        <v>6755960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,7 +6646,7 @@
         <v>8740</v>
       </c>
       <c r="N24" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6672,7 +6660,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72924EB-7341-4BE2-8E2B-800880329EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA2C6D8-9C9A-49C2-AC38-427A085B3C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A0CCCC7-1331-4325-BA50-75495654B22B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9737DED5-0483-488E-8CC0-0E5BC4DF0803}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,77%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,10 +197,10 @@
     <t>7,19%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>2,92%</t>
@@ -209,31 +209,31 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>4,31%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,69%</t>
+    <t>95,7%</t>
   </si>
   <si>
     <t>98,15%</t>
@@ -242,10 +242,10 @@
     <t>95,03%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1147 +254,1147 @@
     <t>7,92%</t>
   </si>
   <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>94,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEEF68-7CFF-4759-B6BC-C7FD9679A008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBEF45-C6AC-47A2-825C-D37ADA91555B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2416,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2425,13 +2425,13 @@
         <v>61024</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>478008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -2461,13 +2461,13 @@
         <v>495756</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>928</v>
@@ -2476,13 +2476,13 @@
         <v>973765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2550,13 +2550,13 @@
         <v>18836</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2565,13 +2565,13 @@
         <v>17804</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2580,13 +2580,13 @@
         <v>36640</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2601,13 @@
         <v>367874</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>378</v>
@@ -2616,13 +2616,13 @@
         <v>386182</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -2631,13 +2631,13 @@
         <v>754056</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2705,13 +2705,13 @@
         <v>19592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2720,13 +2720,13 @@
         <v>59807</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2735,13 +2735,13 @@
         <v>79399</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2756,13 @@
         <v>482874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -2771,13 +2771,13 @@
         <v>617035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1106</v>
@@ -2786,13 +2786,13 @@
         <v>1099909</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2860,13 @@
         <v>243056</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -2875,13 +2875,13 @@
         <v>175391</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -2890,13 +2890,13 @@
         <v>418447</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,16 +2908,16 @@
         <v>2977</v>
       </c>
       <c r="D23" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3128</v>
@@ -2926,13 +2926,13 @@
         <v>3203807</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6105</v>
@@ -2941,13 +2941,13 @@
         <v>6237294</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2959,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53209A9-D860-4783-88A9-ADEA18FBFC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E21C56-F35D-4E61-A3AE-31447883C2EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,7 +3042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3149,13 +3149,13 @@
         <v>59630</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3164,13 +3164,13 @@
         <v>31675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -3179,13 +3179,13 @@
         <v>91305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3200,13 @@
         <v>394516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3215,13 +3215,13 @@
         <v>398555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -3230,13 +3230,13 @@
         <v>793071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3304,13 @@
         <v>82320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3319,13 +3319,13 @@
         <v>39074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3334,13 +3334,13 @@
         <v>121393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3355,13 @@
         <v>604767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3370,13 +3370,13 @@
         <v>571181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1122</v>
@@ -3385,13 +3385,13 @@
         <v>1175949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3459,13 @@
         <v>56566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3474,13 +3474,13 @@
         <v>29388</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3489,13 +3489,13 @@
         <v>85954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3510,13 @@
         <v>625297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -3525,13 +3525,13 @@
         <v>681462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3540,10 +3540,10 @@
         <v>1306758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -3614,13 +3614,13 @@
         <v>37146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3629,13 +3629,13 @@
         <v>36056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3644,13 +3644,13 @@
         <v>73202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3665,13 @@
         <v>577471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3680,13 +3680,13 @@
         <v>580143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3695,13 +3695,13 @@
         <v>1157614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3769,13 +3769,13 @@
         <v>12921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3784,13 +3784,13 @@
         <v>41757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3799,13 +3799,13 @@
         <v>54678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3820,13 @@
         <v>416508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3835,13 +3835,13 @@
         <v>406043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3850,13 +3850,13 @@
         <v>822551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3912,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3924,13 +3924,13 @@
         <v>39330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3939,13 +3939,13 @@
         <v>79523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3954,13 +3954,13 @@
         <v>118853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3975,13 @@
         <v>520307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>619</v>
@@ -3990,13 +3990,13 @@
         <v>663452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -4005,13 +4005,13 @@
         <v>1183759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4079,13 @@
         <v>287913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -4094,13 +4094,13 @@
         <v>257472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -4109,13 +4109,13 @@
         <v>545385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4130,13 @@
         <v>3138866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>3057</v>
@@ -4145,13 +4145,13 @@
         <v>3300837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>5990</v>
@@ -4160,13 +4160,13 @@
         <v>6439703</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC6EF6-6092-41A1-89E4-2CEF4A6B4B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F602EF15-944C-43C4-996D-8EEA503C24F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4368,13 +4368,13 @@
         <v>43980</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4383,13 +4383,13 @@
         <v>18264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4398,13 +4398,13 @@
         <v>62244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4419,13 @@
         <v>375483</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>385</v>
@@ -4434,13 +4434,13 @@
         <v>377491</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4449,13 +4449,13 @@
         <v>752974</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4538,13 @@
         <v>22679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -4553,13 +4553,13 @@
         <v>73536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>540865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -4604,13 +4604,13 @@
         <v>1080504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,10 +4696,10 @@
         <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4708,13 +4708,13 @@
         <v>60906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4729,13 @@
         <v>633239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -4744,13 +4744,13 @@
         <v>636338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1247</v>
@@ -4759,13 +4759,13 @@
         <v>1269577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4833,13 @@
         <v>28832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4848,28 +4848,28 @@
         <v>24485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>53318</v>
+        <v>53317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4884,13 @@
         <v>617216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -4899,13 +4899,13 @@
         <v>624592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>1136</v>
@@ -4914,13 +4914,13 @@
         <v>1241808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4962,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4988,13 +4988,13 @@
         <v>13989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5003,13 +5003,13 @@
         <v>30358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5018,13 +5018,13 @@
         <v>44347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,10 +5039,10 @@
         <v>463929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>326</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5298,10 +5298,10 @@
         <v>199634</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>352</v>
@@ -5316,10 +5316,10 @@
         <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5331,10 +5331,10 @@
         <v>35</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5349,13 @@
         <v>3194716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5364,13 +5364,13 @@
         <v>3353089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5382,10 +5382,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,7 +5441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5463,7 +5463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0BA8D-0C5C-42BE-91A6-5094D9F70049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF2F166-A516-4E69-AAF5-60689C62963B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5480,7 +5480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5587,13 +5587,13 @@
         <v>18010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5602,13 +5602,13 @@
         <v>22926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5617,13 +5617,13 @@
         <v>40936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5638,13 @@
         <v>359669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5653,13 +5653,13 @@
         <v>332031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5668,10 +5668,10 @@
         <v>691700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>377</v>
@@ -5742,7 +5742,7 @@
         <v>27403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>378</v>
@@ -5757,7 +5757,7 @@
         <v>16372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>380</v>
@@ -5772,13 +5772,13 @@
         <v>43775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5793,13 @@
         <v>400993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5811,10 +5811,10 @@
         <v>377</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5823,10 +5823,10 @@
         <v>883198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>377</v>
@@ -5897,13 +5897,13 @@
         <v>37306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5912,13 +5912,13 @@
         <v>29867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5927,13 +5927,13 @@
         <v>67173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5948,13 @@
         <v>519946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -5963,13 +5963,13 @@
         <v>553609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
@@ -5978,13 +5978,13 @@
         <v>1073554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6052,13 @@
         <v>52830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6067,13 +6067,13 @@
         <v>31658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -6082,13 +6082,13 @@
         <v>84488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6103,13 @@
         <v>671160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H14" s="7">
         <v>1091</v>
@@ -6118,13 +6118,13 @@
         <v>715603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -6133,13 +6133,13 @@
         <v>1386763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6195,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6207,13 +6207,13 @@
         <v>30746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -6222,13 +6222,13 @@
         <v>38196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -6237,13 +6237,13 @@
         <v>68942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6258,13 @@
         <v>569411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>940</v>
@@ -6273,13 +6273,13 @@
         <v>558867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>1569</v>
@@ -6288,7 +6288,7 @@
         <v>1128278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>424</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6365,7 +6365,7 @@
         <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>339</v>
@@ -6392,10 +6392,10 @@
         <v>131925</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>32</v>
@@ -6413,13 +6413,13 @@
         <v>659088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>1530</v>
@@ -6431,10 +6431,10 @@
         <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>2494</v>
@@ -6443,13 +6443,13 @@
         <v>1592467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6517,13 @@
         <v>204962</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -6532,13 +6532,13 @@
         <v>232277</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -6547,13 +6547,13 @@
         <v>437239</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6568,13 @@
         <v>3180266</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>5005</v>
@@ -6583,13 +6583,13 @@
         <v>3575695</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>8169</v>
@@ -6598,13 +6598,13 @@
         <v>6755960</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,7 +6660,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA2C6D8-9C9A-49C2-AC38-427A085B3C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F869F12-BCD3-44CB-986B-735DF34E3A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9737DED5-0483-488E-8CC0-0E5BC4DF0803}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA431C25-2D77-4349-8574-1B0CBA395437}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,1330 +71,1342 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBEF45-C6AC-47A2-825C-D37ADA91555B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1650A98F-0DF7-4149-A19E-200786DB4BAB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2121,7 +2133,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2148,13 @@
         <v>670974</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -2151,13 +2163,13 @@
         <v>590225</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1200</v>
@@ -2166,13 +2178,13 @@
         <v>1261198</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2240,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2240,13 +2252,13 @@
         <v>45889</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2255,13 +2267,13 @@
         <v>20157</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2270,13 +2282,13 @@
         <v>66046</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2303,13 @@
         <v>592779</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -2306,13 +2318,13 @@
         <v>669587</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1208</v>
@@ -2321,13 +2333,13 @@
         <v>1262366</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2395,13 +2407,13 @@
         <v>41139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2410,10 +2422,10 @@
         <v>19886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -2425,13 +2437,13 @@
         <v>61024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2458,13 @@
         <v>478008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -2461,13 +2473,13 @@
         <v>495756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>928</v>
@@ -2476,13 +2488,13 @@
         <v>973765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2550,13 +2562,13 @@
         <v>18836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2565,13 +2577,13 @@
         <v>17804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2580,13 +2592,13 @@
         <v>36640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2613,13 @@
         <v>367874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>378</v>
@@ -2616,13 +2628,13 @@
         <v>386182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -2631,13 +2643,13 @@
         <v>754056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2705,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2705,13 +2717,13 @@
         <v>19592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2720,13 +2732,13 @@
         <v>59807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2735,13 +2747,13 @@
         <v>79399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2768,13 @@
         <v>482874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -2771,13 +2783,13 @@
         <v>617035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1106</v>
@@ -2786,13 +2798,13 @@
         <v>1099909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2872,13 @@
         <v>243056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -2875,13 +2887,13 @@
         <v>175391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -2890,13 +2902,13 @@
         <v>418447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,16 +2920,16 @@
         <v>2977</v>
       </c>
       <c r="D23" s="7">
-        <v>3033487</v>
+        <v>3033488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3128</v>
@@ -2926,28 +2938,28 @@
         <v>3203807</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6105</v>
       </c>
       <c r="N23" s="7">
-        <v>6237294</v>
+        <v>6237293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2971,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2989,7 +3001,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3003,7 +3015,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E21C56-F35D-4E61-A3AE-31447883C2EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52988601-C03E-495D-A351-1F0D072250A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,7 +3054,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3149,13 +3161,13 @@
         <v>59630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3164,13 +3176,13 @@
         <v>31675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -3179,13 +3191,13 @@
         <v>91305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3212,13 @@
         <v>394516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3215,13 +3227,13 @@
         <v>398555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -3230,13 +3242,13 @@
         <v>793071</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3316,13 @@
         <v>82320</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3319,13 +3331,13 @@
         <v>39074</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3334,13 +3346,13 @@
         <v>121393</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3367,13 @@
         <v>604767</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3370,13 +3382,13 @@
         <v>571181</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1122</v>
@@ -3385,10 +3397,10 @@
         <v>1175949</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>173</v>
@@ -3447,7 +3459,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3480,7 +3492,7 @@
         <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3489,10 +3501,10 @@
         <v>85954</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>181</v>
@@ -3528,10 +3540,10 @@
         <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3540,13 +3552,13 @@
         <v>1306758</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3614,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3614,13 +3626,13 @@
         <v>37146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3629,13 +3641,13 @@
         <v>36056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3644,13 +3656,13 @@
         <v>73202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3677,13 @@
         <v>577471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3680,13 +3692,13 @@
         <v>580143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3695,13 +3707,13 @@
         <v>1157614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3769,13 +3781,13 @@
         <v>12921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3784,13 +3796,13 @@
         <v>41757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3799,13 +3811,13 @@
         <v>54678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3832,13 @@
         <v>416508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3835,13 +3847,13 @@
         <v>406043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3850,13 +3862,13 @@
         <v>822551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3924,13 +3936,13 @@
         <v>39330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3939,13 +3951,13 @@
         <v>79523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -3954,13 +3966,13 @@
         <v>118853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3987,13 @@
         <v>520307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>619</v>
@@ -3990,13 +4002,13 @@
         <v>663452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -4005,13 +4017,13 @@
         <v>1183759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>287913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -4094,13 +4106,13 @@
         <v>257472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -4109,13 +4121,13 @@
         <v>545385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4142,13 @@
         <v>3138866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>3057</v>
@@ -4145,13 +4157,13 @@
         <v>3300837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>5990</v>
@@ -4160,13 +4172,13 @@
         <v>6439703</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4234,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F602EF15-944C-43C4-996D-8EEA503C24F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DBE51-B85B-4A4D-A624-41BF966B9C54}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4368,13 +4380,13 @@
         <v>43980</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4383,13 +4395,13 @@
         <v>18264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4398,13 +4410,13 @@
         <v>62244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4431,13 @@
         <v>375483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>385</v>
@@ -4434,13 +4446,13 @@
         <v>377491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4449,13 +4461,13 @@
         <v>752974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>50857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4538,7 +4550,7 @@
         <v>22679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>275</v>
@@ -4553,13 +4565,13 @@
         <v>73536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,10 +4586,10 @@
         <v>539639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>280</v>
@@ -4589,13 +4601,13 @@
         <v>540865</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -4604,13 +4616,13 @@
         <v>1080504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4678,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4678,13 +4690,13 @@
         <v>35858</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4693,10 +4705,10 @@
         <v>25048</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>289</v>
@@ -4729,13 +4741,13 @@
         <v>633239</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -4744,13 +4756,13 @@
         <v>636338</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1247</v>
@@ -4821,7 +4833,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4866,10 +4878,10 @@
         <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>617216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -4899,13 +4911,13 @@
         <v>624592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>1136</v>
@@ -4914,13 +4926,13 @@
         <v>1241808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4988,13 +5000,13 @@
         <v>13989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5003,13 +5015,13 @@
         <v>30358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5018,13 +5030,13 @@
         <v>44347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5051,13 @@
         <v>463929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -5054,13 +5066,13 @@
         <v>466491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5069,13 +5081,13 @@
         <v>930420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5143,13 +5155,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -5158,13 +5170,13 @@
         <v>70619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -5173,13 +5185,13 @@
         <v>96737</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5206,13 @@
         <v>565211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>596</v>
@@ -5209,13 +5221,13 @@
         <v>707312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>1194</v>
@@ -5224,13 +5236,13 @@
         <v>1272522</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5310,13 @@
         <v>199634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5313,13 +5325,13 @@
         <v>191453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5331,10 +5343,10 @@
         <v>35</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5361,13 @@
         <v>3194716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5364,13 +5376,13 @@
         <v>3353089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5379,13 +5391,13 @@
         <v>6547805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,7 +5453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5463,7 +5475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF2F166-A516-4E69-AAF5-60689C62963B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004EEA1-B0F5-4E5C-A1C0-8F7170F8ADD5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5480,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5587,13 +5599,13 @@
         <v>18010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5602,13 +5614,13 @@
         <v>22926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5617,13 +5629,13 @@
         <v>40936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5650,13 @@
         <v>359669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5653,13 +5665,13 @@
         <v>332031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5668,13 +5680,13 @@
         <v>691700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5754,13 @@
         <v>27403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5757,13 +5769,13 @@
         <v>16372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5772,13 +5784,13 @@
         <v>43775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5805,13 @@
         <v>400993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -5808,13 +5820,13 @@
         <v>482205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5823,13 +5835,13 @@
         <v>883198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5897,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5897,13 +5909,13 @@
         <v>37306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5912,13 +5924,13 @@
         <v>29867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5927,13 +5939,13 @@
         <v>67173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5960,13 @@
         <v>519946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -5963,13 +5975,13 @@
         <v>553609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
@@ -5978,13 +5990,13 @@
         <v>1073554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6052,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6052,13 +6064,13 @@
         <v>52830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -6067,13 +6079,13 @@
         <v>31658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -6082,13 +6094,13 @@
         <v>84488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>411</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6115,13 @@
         <v>671160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>1091</v>
@@ -6118,28 +6130,28 @@
         <v>715603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
       </c>
       <c r="N14" s="7">
-        <v>1386763</v>
+        <v>1386764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,7 +6193,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6195,7 +6207,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6207,13 +6219,13 @@
         <v>30746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -6222,13 +6234,13 @@
         <v>38196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -6237,13 +6249,13 @@
         <v>68942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6270,13 @@
         <v>569411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>940</v>
@@ -6273,13 +6285,13 @@
         <v>558867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>1569</v>
@@ -6288,7 +6300,7 @@
         <v>1128278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>424</v>
@@ -6350,7 +6362,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6365,10 +6377,10 @@
         <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -6377,13 +6389,13 @@
         <v>93258</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>242</v>
@@ -6392,13 +6404,13 @@
         <v>131925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,16 +6422,16 @@
         <v>964</v>
       </c>
       <c r="D20" s="7">
-        <v>659088</v>
+        <v>659087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>1530</v>
@@ -6428,13 +6440,13 @@
         <v>933379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>2494</v>
@@ -6443,13 +6455,13 @@
         <v>1592467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,7 +6473,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6517,13 +6529,13 @@
         <v>204962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -6532,13 +6544,13 @@
         <v>232277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>571</v>
@@ -6547,13 +6559,13 @@
         <v>437239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6580,13 @@
         <v>3180266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>5005</v>
@@ -6583,28 +6595,28 @@
         <v>3575695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>8169</v>
       </c>
       <c r="N23" s="7">
-        <v>6755960</v>
+        <v>6755961</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,7 +6658,7 @@
         <v>8740</v>
       </c>
       <c r="N24" s="7">
-        <v>7193199</v>
+        <v>7193200</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6660,7 +6672,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F869F12-BCD3-44CB-986B-735DF34E3A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45604293-0A2B-44CD-8046-1C30C59BCB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA431C25-2D77-4349-8574-1B0CBA395437}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE5D7CE6-07F1-44A4-81AA-92129C5E1FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="525">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -185,7 +185,7 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -242,7 +242,7 @@
     <t>96,1%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -287,7 +287,7 @@
     <t>95,47%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,87%</t>
@@ -344,582 +344,693 @@
     <t>96,64%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
     <t>92,66%</t>
   </si>
   <si>
@@ -1046,367 +1157,463 @@
     <t>96,72%</t>
   </si>
   <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +2025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1650A98F-0DF7-4149-A19E-200786DB4BAB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BD573-451E-44FA-A57D-EA16B4821E19}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2711,49 +2918,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>19592</v>
+        <v>10770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>59807</v>
+        <v>25638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>79399</v>
+        <v>36408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,49 +2969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>502</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>482874</v>
+        <v>281813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>604</v>
+        <v>344</v>
       </c>
       <c r="I20" s="7">
-        <v>617035</v>
+        <v>317296</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>1106</v>
+        <v>635</v>
       </c>
       <c r="N20" s="7">
-        <v>1099909</v>
+        <v>599109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2828,10 +3035,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3050,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2860,55 +3067,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>243056</v>
+        <v>8822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>175391</v>
+        <v>34169</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>418447</v>
+        <v>42991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,49 +3124,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2977</v>
+        <v>211</v>
       </c>
       <c r="D23" s="7">
-        <v>3033488</v>
+        <v>201061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>3128</v>
+        <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>3203807</v>
+        <v>299739</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>6105</v>
+        <v>471</v>
       </c>
       <c r="N23" s="7">
-        <v>6237293</v>
+        <v>500800</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,63 +3175,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>237</v>
+      </c>
+      <c r="D25" s="7">
+        <v>243056</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>169</v>
+      </c>
+      <c r="I25" s="7">
+        <v>175391</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>406</v>
+      </c>
+      <c r="N25" s="7">
+        <v>418447</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2977</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3033487</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3128</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3203806</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6105</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6237294</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3037,8 +3400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52988601-C03E-495D-A351-1F0D072250A3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DE4D5F-C0F8-4BFD-973D-6E660A0978F3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3054,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3161,13 +3524,13 @@
         <v>59630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3176,13 +3539,13 @@
         <v>31675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -3191,13 +3554,13 @@
         <v>91305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3575,13 @@
         <v>394516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3227,13 +3590,13 @@
         <v>398555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -3242,13 +3605,13 @@
         <v>793071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3679,13 @@
         <v>82320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3331,13 +3694,13 @@
         <v>39074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>116</v>
@@ -3346,13 +3709,13 @@
         <v>121393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3730,13 @@
         <v>604767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -3382,13 +3745,13 @@
         <v>571181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1122</v>
@@ -3397,13 +3760,13 @@
         <v>1175949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3834,13 @@
         <v>56566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3486,13 +3849,13 @@
         <v>29388</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -3501,13 +3864,13 @@
         <v>85954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3885,13 @@
         <v>625297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -3537,13 +3900,13 @@
         <v>681462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3552,13 +3915,13 @@
         <v>1306758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3989,13 @@
         <v>37146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3641,13 +4004,13 @@
         <v>36056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3656,13 +4019,13 @@
         <v>73202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +4040,13 @@
         <v>577471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3692,13 +4055,13 @@
         <v>580143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3707,10 +4070,10 @@
         <v>1157614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>98</v>
@@ -3781,13 +4144,13 @@
         <v>12921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3796,13 +4159,13 @@
         <v>41757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3811,13 +4174,13 @@
         <v>54678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +4195,13 @@
         <v>416508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -3847,13 +4210,13 @@
         <v>406043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3862,13 +4225,13 @@
         <v>822551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +4293,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>39330</v>
+        <v>17298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>79523</v>
+        <v>25331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N19" s="7">
-        <v>118853</v>
+        <v>42629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4344,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>520307</v>
+        <v>292488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
-        <v>619</v>
+        <v>318</v>
       </c>
       <c r="I20" s="7">
-        <v>663452</v>
+        <v>328665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
-        <v>1086</v>
+        <v>584</v>
       </c>
       <c r="N20" s="7">
-        <v>1183759</v>
+        <v>621153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4410,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4062,10 +4425,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4079,55 +4442,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>287913</v>
+        <v>22032</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>257472</v>
+        <v>54192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
-        <v>517</v>
+        <v>70</v>
       </c>
       <c r="N22" s="7">
-        <v>545385</v>
+        <v>76224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2933</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7">
-        <v>3138866</v>
+        <v>227819</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
-        <v>3057</v>
+        <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>3300837</v>
+        <v>334787</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
-        <v>5990</v>
+        <v>502</v>
       </c>
       <c r="N23" s="7">
-        <v>6439703</v>
+        <v>562606</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,63 +4550,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>276</v>
+      </c>
+      <c r="D25" s="7">
+        <v>287913</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="7">
+        <v>241</v>
+      </c>
+      <c r="I25" s="7">
+        <v>257472</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="7">
+        <v>517</v>
+      </c>
+      <c r="N25" s="7">
+        <v>545385</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2933</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3138866</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3057</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3300837</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5990</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6439703</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4256,8 +4775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DBE51-B85B-4A4D-A624-41BF966B9C54}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1CBCBC-ACC4-4968-89E2-816E748F712F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4273,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4380,13 +4899,13 @@
         <v>43980</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4395,10 +4914,10 @@
         <v>18264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -4413,10 +4932,10 @@
         <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4950,13 @@
         <v>375483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>385</v>
@@ -4446,13 +4965,13 @@
         <v>377491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4464,10 +4983,10 @@
         <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +5054,13 @@
         <v>50857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4553,10 +5072,10 @@
         <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -4565,13 +5084,13 @@
         <v>73536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +5105,13 @@
         <v>539639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -4604,10 +5123,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -4616,13 +5135,13 @@
         <v>1080504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +5209,13 @@
         <v>35858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4705,13 +5224,13 @@
         <v>25048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4720,13 +5239,13 @@
         <v>60906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +5260,13 @@
         <v>633239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -4756,13 +5275,13 @@
         <v>636338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>1247</v>
@@ -4771,13 +5290,13 @@
         <v>1269577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +5364,13 @@
         <v>28832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4860,13 +5379,13 @@
         <v>24485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -4875,13 +5394,13 @@
         <v>53317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +5415,13 @@
         <v>617216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -4911,13 +5430,13 @@
         <v>624592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>1136</v>
@@ -4926,13 +5445,13 @@
         <v>1241808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5519,13 @@
         <v>13989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5015,13 +5534,13 @@
         <v>30358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -5030,13 +5549,13 @@
         <v>44347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5570,13 @@
         <v>463929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -5066,13 +5585,13 @@
         <v>466491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5081,13 +5600,13 @@
         <v>930420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5668,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>26117</v>
+        <v>10932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>70619</v>
+        <v>29301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>96737</v>
+        <v>40233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5719,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>598</v>
+        <v>314</v>
       </c>
       <c r="D20" s="7">
-        <v>565211</v>
+        <v>323398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>596</v>
+        <v>326</v>
       </c>
       <c r="I20" s="7">
-        <v>707312</v>
+        <v>348461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>1194</v>
+        <v>640</v>
       </c>
       <c r="N20" s="7">
-        <v>1272522</v>
+        <v>671859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5266,10 +5785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5281,10 +5800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5298,55 +5817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>199634</v>
+        <v>15185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>191453</v>
+        <v>41318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
-        <v>365</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>391087</v>
+        <v>56503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3038</v>
+        <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>3194716</v>
+        <v>241813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
-        <v>3166</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>3353089</v>
+        <v>358851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
-        <v>6204</v>
+        <v>554</v>
       </c>
       <c r="N23" s="7">
-        <v>6547805</v>
+        <v>600664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,63 +5925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>193</v>
+      </c>
+      <c r="D25" s="7">
+        <v>199634</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H25" s="7">
+        <v>172</v>
+      </c>
+      <c r="I25" s="7">
+        <v>191453</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="7">
+        <v>365</v>
+      </c>
+      <c r="N25" s="7">
+        <v>391087</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3038</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3194716</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3166</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3353089</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6204</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6547805</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5475,8 +6150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3004EEA1-B0F5-4E5C-A1C0-8F7170F8ADD5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13D5DD-1CEC-47A0-9EDC-363D12B15C04}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5492,7 +6167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5596,46 +6271,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>18010</v>
+        <v>19137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>22926</v>
+        <v>19928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>40936</v>
+        <v>39065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,46 +6322,46 @@
         <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>359669</v>
+        <v>380850</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>332031</v>
+        <v>293272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
       </c>
       <c r="N5" s="7">
-        <v>691700</v>
+        <v>674122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +6373,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5713,7 +6388,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5728,7 +6403,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5751,46 +6426,46 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>27403</v>
+        <v>27267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>435</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>16372</v>
+        <v>14974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>43775</v>
+        <v>42240</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,46 +6477,46 @@
         <v>283</v>
       </c>
       <c r="D8" s="7">
-        <v>400993</v>
+        <v>396280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>442</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
       </c>
       <c r="I8" s="7">
-        <v>482205</v>
+        <v>496530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
       </c>
       <c r="N8" s="7">
-        <v>883198</v>
+        <v>892811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +6528,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5868,7 +6543,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5883,7 +6558,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5906,46 +6581,46 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>37306</v>
+        <v>37002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>29867</v>
+        <v>28034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>67173</v>
+        <v>65037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,46 +6632,46 @@
         <v>512</v>
       </c>
       <c r="D11" s="7">
-        <v>519946</v>
+        <v>499336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
       </c>
       <c r="I11" s="7">
-        <v>553609</v>
+        <v>514434</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
       </c>
       <c r="N11" s="7">
-        <v>1073554</v>
+        <v>1013769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +6683,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6023,7 +6698,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6038,7 +6713,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6061,46 +6736,46 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>52830</v>
+        <v>50698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>31658</v>
+        <v>29385</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
       </c>
       <c r="N13" s="7">
-        <v>84488</v>
+        <v>80083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,46 +6787,46 @@
         <v>612</v>
       </c>
       <c r="D14" s="7">
-        <v>671160</v>
+        <v>837088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>1091</v>
       </c>
       <c r="I14" s="7">
-        <v>715603</v>
+        <v>683496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>473</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
       </c>
       <c r="N14" s="7">
-        <v>1386764</v>
+        <v>1520584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6838,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6178,7 +6853,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6193,7 +6868,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6216,46 +6891,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>30746</v>
+        <v>28933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>38196</v>
+        <v>35389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
       </c>
       <c r="N16" s="7">
-        <v>68942</v>
+        <v>64321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,46 +6942,46 @@
         <v>629</v>
       </c>
       <c r="D17" s="7">
-        <v>569411</v>
+        <v>532301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>940</v>
       </c>
       <c r="I17" s="7">
-        <v>558867</v>
+        <v>512516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>1569</v>
       </c>
       <c r="N17" s="7">
-        <v>1128278</v>
+        <v>1044818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,7 +6993,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6333,7 +7008,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6348,7 +7023,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6368,49 +7043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>38667</v>
+        <v>16285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>93258</v>
+        <v>32944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>491</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="N19" s="7">
-        <v>131925</v>
+        <v>49230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,49 +7094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>964</v>
+        <v>544</v>
       </c>
       <c r="D20" s="7">
-        <v>659087</v>
+        <v>351880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>1530</v>
+        <v>760</v>
       </c>
       <c r="I20" s="7">
-        <v>933379</v>
+        <v>575424</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
-        <v>2494</v>
+        <v>1304</v>
       </c>
       <c r="N20" s="7">
-        <v>1592467</v>
+        <v>927303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,10 +7145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6485,10 +7160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6500,10 +7175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6517,55 +7192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>204962</v>
+        <v>20737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="H22" s="7">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="I22" s="7">
-        <v>232277</v>
+        <v>52949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
-        <v>571</v>
+        <v>149</v>
       </c>
       <c r="N22" s="7">
-        <v>437239</v>
+        <v>73686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,49 +7249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3164</v>
+        <v>420</v>
       </c>
       <c r="D23" s="7">
-        <v>3180266</v>
+        <v>262022</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>5005</v>
+        <v>770</v>
       </c>
       <c r="I23" s="7">
-        <v>3575695</v>
+        <v>372882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="M23" s="7">
-        <v>8169</v>
+        <v>1190</v>
       </c>
       <c r="N23" s="7">
-        <v>6755961</v>
+        <v>634904</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,63 +7300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>212</v>
+      </c>
+      <c r="D25" s="7">
+        <v>200059</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" s="7">
+        <v>359</v>
+      </c>
+      <c r="I25" s="7">
+        <v>213603</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M25" s="7">
+        <v>571</v>
+      </c>
+      <c r="N25" s="7">
+        <v>413662</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3164</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3259758</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5005</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3448554</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8169</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6708312</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5364</v>
       </c>
-      <c r="I24" s="7">
-        <v>3807972</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3662157</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8740</v>
       </c>
-      <c r="N24" s="7">
-        <v>7193200</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7121974</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
